--- a/NAPS_WordNet_Animals.xlsx
+++ b/NAPS_WordNet_Animals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko Horvat\Desktop\Desktop Folders\Desktop Folders_04\135_MDPI Data_NAPS WordNet\01_Dataset\03_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D99A5B-1B3B-48EA-AA37-7F60539CA87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A43C7F-8971-43FC-BE32-CC23C294F380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15345" xr2:uid="{64807D5A-B71E-4C37-9717-E8CC23701100}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{64807D5A-B71E-4C37-9717-E8CC23701100}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
@@ -2065,7 +2065,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A56BEF7-E3AB-4FAC-96E9-A21DA5F6895A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W226"/>
+  <dimension ref="A1:X266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2078,7 +2078,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
+    <row r="1" spans="1:24" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2109,21 +2109,22 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1">
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="1:24" ht="15" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2140,8 +2141,22 @@
         <v>14</v>
       </c>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1">
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2154,8 +2169,22 @@
       <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1">
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2168,8 +2197,22 @@
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2185,8 +2228,22 @@
       <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1">
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -2199,8 +2256,22 @@
       <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15" customHeight="1">
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -2213,8 +2284,22 @@
       <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" customHeight="1">
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -2230,8 +2315,22 @@
       <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1">
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -2250,8 +2349,22 @@
       <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1">
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -2267,8 +2380,22 @@
       <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1">
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -2284,8 +2411,22 @@
       <c r="E11" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1">
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -2304,8 +2445,22 @@
       <c r="F12" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1">
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -2321,8 +2476,22 @@
       <c r="E13" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1">
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
@@ -2338,8 +2507,22 @@
       <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1">
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24" ht="15" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
@@ -2352,8 +2535,22 @@
       <c r="D15" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1">
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -2366,8 +2563,22 @@
       <c r="D16" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -2383,8 +2594,22 @@
       <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
@@ -2400,8 +2625,22 @@
       <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
@@ -2417,8 +2656,22 @@
       <c r="E19" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -2434,8 +2687,22 @@
       <c r="E20" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -2448,8 +2715,22 @@
       <c r="D21" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -2465,8 +2746,22 @@
       <c r="E22" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
@@ -2482,8 +2777,22 @@
       <c r="E23" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
@@ -2499,8 +2808,22 @@
       <c r="E24" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -2516,8 +2839,22 @@
       <c r="E25" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>83</v>
       </c>
@@ -2533,8 +2870,22 @@
       <c r="E26" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>87</v>
       </c>
@@ -2547,8 +2898,22 @@
       <c r="D27" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
@@ -2564,8 +2929,22 @@
       <c r="E28" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>89</v>
       </c>
@@ -2581,8 +2960,22 @@
       <c r="E29" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
@@ -2598,8 +2991,22 @@
       <c r="E30" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:24" ht="15" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>96</v>
       </c>
@@ -2615,8 +3022,22 @@
       <c r="E31" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>98</v>
       </c>
@@ -2629,8 +3050,22 @@
       <c r="D32" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="1:24" ht="15" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -2646,8 +3081,22 @@
       <c r="E33" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24" ht="15" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>104</v>
       </c>
@@ -2663,8 +3112,22 @@
       <c r="E34" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24" ht="15" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>105</v>
       </c>
@@ -2683,8 +3146,22 @@
       <c r="F35" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="1:24" ht="15" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>107</v>
       </c>
@@ -2700,8 +3177,22 @@
       <c r="E36" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="1:24" ht="15" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>109</v>
       </c>
@@ -2717,8 +3208,22 @@
       <c r="E37" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+    </row>
+    <row r="38" spans="1:24" ht="15" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>112</v>
       </c>
@@ -2731,8 +3236,22 @@
       <c r="D38" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="1:24" ht="15" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>115</v>
       </c>
@@ -2748,8 +3267,22 @@
       <c r="E39" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="1:24" ht="15" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>118</v>
       </c>
@@ -2765,8 +3298,22 @@
       <c r="E40" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+    </row>
+    <row r="41" spans="1:24" ht="15" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>120</v>
       </c>
@@ -2782,8 +3329,22 @@
       <c r="E41" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+    </row>
+    <row r="42" spans="1:24" ht="15" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>124</v>
       </c>
@@ -2796,8 +3357,22 @@
       <c r="D42" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+    </row>
+    <row r="43" spans="1:24" ht="15" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>127</v>
       </c>
@@ -2810,8 +3385,22 @@
       <c r="D43" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+    </row>
+    <row r="44" spans="1:24" ht="15" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>130</v>
       </c>
@@ -2824,8 +3413,22 @@
       <c r="D44" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1">
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+    </row>
+    <row r="45" spans="1:24" ht="15" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>132</v>
       </c>
@@ -2841,8 +3444,22 @@
       <c r="E45" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+    </row>
+    <row r="46" spans="1:24" ht="15" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>133</v>
       </c>
@@ -2858,8 +3475,22 @@
       <c r="E46" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1">
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+    </row>
+    <row r="47" spans="1:24" ht="15" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>134</v>
       </c>
@@ -2872,8 +3503,22 @@
       <c r="D47" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+    </row>
+    <row r="48" spans="1:24" ht="15" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>135</v>
       </c>
@@ -2889,8 +3534,22 @@
       <c r="E48" s="7" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1">
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+    </row>
+    <row r="49" spans="1:24" ht="15" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>137</v>
       </c>
@@ -2909,8 +3568,22 @@
       <c r="F49" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+    </row>
+    <row r="50" spans="1:24" ht="15" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>141</v>
       </c>
@@ -2926,8 +3599,22 @@
       <c r="E50" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1">
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+    </row>
+    <row r="51" spans="1:24" ht="15" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>143</v>
       </c>
@@ -2946,8 +3633,22 @@
       <c r="F51" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1">
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+    </row>
+    <row r="52" spans="1:24" ht="15" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>147</v>
       </c>
@@ -2963,8 +3664,22 @@
       <c r="E52" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+    </row>
+    <row r="53" spans="1:24" ht="15" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>149</v>
       </c>
@@ -2980,8 +3695,22 @@
       <c r="E53" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1">
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+    </row>
+    <row r="54" spans="1:24" ht="15" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>153</v>
       </c>
@@ -3000,8 +3729,22 @@
       <c r="G54" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1">
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+    </row>
+    <row r="55" spans="1:24" ht="15" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>158</v>
       </c>
@@ -3017,8 +3760,22 @@
       <c r="E55" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1">
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+    </row>
+    <row r="56" spans="1:24" ht="15" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>159</v>
       </c>
@@ -3031,8 +3788,22 @@
       <c r="D56" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" customHeight="1">
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+    </row>
+    <row r="57" spans="1:24" ht="15" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>162</v>
       </c>
@@ -3048,8 +3819,22 @@
       <c r="E57" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" customHeight="1">
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+    </row>
+    <row r="58" spans="1:24" ht="15" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>163</v>
       </c>
@@ -3068,8 +3853,22 @@
       <c r="F58" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+    </row>
+    <row r="59" spans="1:24" ht="15" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>166</v>
       </c>
@@ -3085,8 +3884,22 @@
       <c r="E59" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1">
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+    </row>
+    <row r="60" spans="1:24" ht="15" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>168</v>
       </c>
@@ -3102,8 +3915,22 @@
       <c r="E60" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1">
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+    </row>
+    <row r="61" spans="1:24" ht="15" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>169</v>
       </c>
@@ -3119,8 +3946,22 @@
       <c r="E61" s="7" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15" customHeight="1">
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+    </row>
+    <row r="62" spans="1:24" ht="15" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>173</v>
       </c>
@@ -3139,8 +3980,22 @@
       <c r="F62" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1">
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+    </row>
+    <row r="63" spans="1:24" ht="15" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>176</v>
       </c>
@@ -3159,8 +4014,22 @@
       <c r="F63" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1">
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+    </row>
+    <row r="64" spans="1:24" ht="15" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>180</v>
       </c>
@@ -3176,8 +4045,22 @@
       <c r="E64" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="15" customHeight="1">
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+    </row>
+    <row r="65" spans="1:24" ht="15" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>181</v>
       </c>
@@ -3196,8 +4079,22 @@
       <c r="F65" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="15" customHeight="1">
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+    </row>
+    <row r="66" spans="1:24" ht="15" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>185</v>
       </c>
@@ -3213,8 +4110,22 @@
       <c r="E66" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="15" customHeight="1">
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+    </row>
+    <row r="67" spans="1:24" ht="15" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>189</v>
       </c>
@@ -3230,8 +4141,22 @@
       <c r="E67" s="7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" ht="15" customHeight="1">
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+    </row>
+    <row r="68" spans="1:24" ht="15" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>192</v>
       </c>
@@ -3247,8 +4172,22 @@
       <c r="E68" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" ht="15" customHeight="1">
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+    </row>
+    <row r="69" spans="1:24" ht="15" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>195</v>
       </c>
@@ -3264,8 +4203,22 @@
       <c r="E69" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" ht="15" customHeight="1">
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+    </row>
+    <row r="70" spans="1:24" ht="15" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>198</v>
       </c>
@@ -3281,8 +4234,22 @@
       <c r="E70" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" ht="15" customHeight="1">
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+    </row>
+    <row r="71" spans="1:24" ht="15" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>199</v>
       </c>
@@ -3298,8 +4265,22 @@
       <c r="E71" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" ht="15" customHeight="1">
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+    </row>
+    <row r="72" spans="1:24" ht="15" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>201</v>
       </c>
@@ -3315,8 +4296,22 @@
       <c r="E72" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" ht="15" customHeight="1">
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+    </row>
+    <row r="73" spans="1:24" ht="15" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>204</v>
       </c>
@@ -3332,8 +4327,22 @@
       <c r="E73" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="15" customHeight="1">
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+    </row>
+    <row r="74" spans="1:24" ht="15" customHeight="1">
       <c r="A74" s="10" t="s">
         <v>206</v>
       </c>
@@ -3354,21 +4363,22 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-    </row>
-    <row r="75" spans="1:23" ht="15" customHeight="1">
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+    </row>
+    <row r="75" spans="1:24" ht="15" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>209</v>
       </c>
@@ -3387,8 +4397,22 @@
       <c r="F75" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="15" customHeight="1">
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+    </row>
+    <row r="76" spans="1:24" ht="15" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>210</v>
       </c>
@@ -3407,8 +4431,22 @@
       <c r="F76" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="15" customHeight="1">
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+    </row>
+    <row r="77" spans="1:24" ht="15" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>213</v>
       </c>
@@ -3424,8 +4462,22 @@
       <c r="E77" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="15" customHeight="1">
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+    </row>
+    <row r="78" spans="1:24" ht="15" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>214</v>
       </c>
@@ -3444,8 +4496,22 @@
       <c r="F78" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" ht="15" customHeight="1">
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+    </row>
+    <row r="79" spans="1:24" ht="15" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>215</v>
       </c>
@@ -3461,8 +4527,22 @@
       <c r="E79" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" ht="15" customHeight="1">
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+    </row>
+    <row r="80" spans="1:24" ht="15" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>216</v>
       </c>
@@ -3478,8 +4558,22 @@
       <c r="E80" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" ht="15" customHeight="1">
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+    </row>
+    <row r="81" spans="1:24" ht="15" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>217</v>
       </c>
@@ -3495,8 +4589,22 @@
       <c r="E81" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" ht="15" customHeight="1">
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+    </row>
+    <row r="82" spans="1:24" ht="15" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>218</v>
       </c>
@@ -3509,8 +4617,22 @@
       <c r="D82" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="15" customHeight="1">
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+    </row>
+    <row r="83" spans="1:24" ht="15" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>219</v>
       </c>
@@ -3526,8 +4648,22 @@
       <c r="E83" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" ht="15" customHeight="1">
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+    </row>
+    <row r="84" spans="1:24" ht="15" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>222</v>
       </c>
@@ -3543,8 +4679,22 @@
       <c r="E84" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="15" customHeight="1">
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+    </row>
+    <row r="85" spans="1:24" ht="15" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>223</v>
       </c>
@@ -3560,8 +4710,22 @@
       <c r="E85" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="15" customHeight="1">
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+    </row>
+    <row r="86" spans="1:24" ht="15" customHeight="1">
       <c r="A86" s="10" t="s">
         <v>225</v>
       </c>
@@ -3582,21 +4746,22 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="12"/>
-      <c r="W86" s="12"/>
-    </row>
-    <row r="87" spans="1:23" ht="15" customHeight="1">
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+    </row>
+    <row r="87" spans="1:24" ht="15" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>228</v>
       </c>
@@ -3612,8 +4777,22 @@
       <c r="E87" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" ht="15" customHeight="1">
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+    </row>
+    <row r="88" spans="1:24" ht="15" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>229</v>
       </c>
@@ -3626,8 +4805,22 @@
       <c r="D88" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="15" customHeight="1">
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+    </row>
+    <row r="89" spans="1:24" ht="15" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>230</v>
       </c>
@@ -3640,8 +4833,22 @@
       <c r="D89" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" ht="15" customHeight="1">
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+    </row>
+    <row r="90" spans="1:24" ht="15" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>232</v>
       </c>
@@ -3660,8 +4867,22 @@
       <c r="F90" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" ht="15" customHeight="1">
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+    </row>
+    <row r="91" spans="1:24" ht="15" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>237</v>
       </c>
@@ -3677,8 +4898,22 @@
       <c r="E91" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" ht="15" customHeight="1">
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+    </row>
+    <row r="92" spans="1:24" ht="15" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>240</v>
       </c>
@@ -3694,8 +4929,22 @@
       <c r="E92" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" ht="15" customHeight="1">
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+    </row>
+    <row r="93" spans="1:24" ht="15" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>241</v>
       </c>
@@ -3711,8 +4960,22 @@
       <c r="E93" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" ht="15" customHeight="1">
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+    </row>
+    <row r="94" spans="1:24" ht="15" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>243</v>
       </c>
@@ -3728,8 +4991,22 @@
       <c r="E94" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" ht="15" customHeight="1">
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+    </row>
+    <row r="95" spans="1:24" ht="15" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>246</v>
       </c>
@@ -3748,8 +5025,22 @@
       <c r="F95" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" ht="15" customHeight="1">
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+    </row>
+    <row r="96" spans="1:24" ht="15" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>249</v>
       </c>
@@ -3765,8 +5056,22 @@
       <c r="E96" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1">
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+    </row>
+    <row r="97" spans="1:24" ht="15" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>252</v>
       </c>
@@ -3788,8 +5093,22 @@
       <c r="G97" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1">
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+    </row>
+    <row r="98" spans="1:24" ht="15" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>257</v>
       </c>
@@ -3805,8 +5124,22 @@
       <c r="E98" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1">
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+    </row>
+    <row r="99" spans="1:24" ht="15" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>259</v>
       </c>
@@ -3825,8 +5158,22 @@
       <c r="F99" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1">
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+    </row>
+    <row r="100" spans="1:24" ht="15" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>262</v>
       </c>
@@ -3842,8 +5189,22 @@
       <c r="E100" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1">
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+    </row>
+    <row r="101" spans="1:24" ht="15" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>263</v>
       </c>
@@ -3862,8 +5223,22 @@
       <c r="G101" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1">
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+    </row>
+    <row r="102" spans="1:24" ht="15" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>266</v>
       </c>
@@ -3882,8 +5257,22 @@
       <c r="F102" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1">
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+    </row>
+    <row r="103" spans="1:24" ht="15" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>268</v>
       </c>
@@ -3899,8 +5288,22 @@
       <c r="E103" s="7" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1">
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+    </row>
+    <row r="104" spans="1:24" ht="15" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>272</v>
       </c>
@@ -3913,8 +5316,22 @@
       <c r="D104" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1">
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+    </row>
+    <row r="105" spans="1:24" ht="15" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>274</v>
       </c>
@@ -3927,8 +5344,22 @@
       <c r="D105" s="7" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1">
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+    </row>
+    <row r="106" spans="1:24" ht="15" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>277</v>
       </c>
@@ -3944,8 +5375,22 @@
       <c r="E106" s="7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1">
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+    </row>
+    <row r="107" spans="1:24" ht="15" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>281</v>
       </c>
@@ -3958,8 +5403,22 @@
       <c r="D107" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1">
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+    </row>
+    <row r="108" spans="1:24" ht="15" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>283</v>
       </c>
@@ -3975,8 +5434,22 @@
       <c r="E108" s="7" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1">
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+    </row>
+    <row r="109" spans="1:24" ht="15" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>285</v>
       </c>
@@ -3992,8 +5465,22 @@
       <c r="E109" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1">
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+    </row>
+    <row r="110" spans="1:24" ht="15" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>289</v>
       </c>
@@ -4012,8 +5499,22 @@
       <c r="F110" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1">
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+    </row>
+    <row r="111" spans="1:24" ht="15" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>290</v>
       </c>
@@ -4032,8 +5533,22 @@
       <c r="F111" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1">
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+    </row>
+    <row r="112" spans="1:24" ht="15" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>294</v>
       </c>
@@ -4046,8 +5561,22 @@
       <c r="D112" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1">
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+    </row>
+    <row r="113" spans="1:24" ht="15" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>296</v>
       </c>
@@ -4063,8 +5592,22 @@
       <c r="E113" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1">
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+    </row>
+    <row r="114" spans="1:24" ht="15" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>298</v>
       </c>
@@ -4080,8 +5623,22 @@
       <c r="E114" s="7" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1">
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+    </row>
+    <row r="115" spans="1:24" ht="15" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>300</v>
       </c>
@@ -4103,8 +5660,22 @@
       <c r="G115" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1">
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+    </row>
+    <row r="116" spans="1:24" ht="15" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>304</v>
       </c>
@@ -4120,8 +5691,22 @@
       <c r="E116" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1">
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+    </row>
+    <row r="117" spans="1:24" ht="15" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>306</v>
       </c>
@@ -4137,8 +5722,22 @@
       <c r="E117" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1">
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+    </row>
+    <row r="118" spans="1:24" ht="15" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>309</v>
       </c>
@@ -4154,8 +5753,22 @@
       <c r="E118" s="7" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1">
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+    </row>
+    <row r="119" spans="1:24" ht="15" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>310</v>
       </c>
@@ -4171,8 +5784,22 @@
       <c r="E119" s="7" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1">
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+    </row>
+    <row r="120" spans="1:24" ht="15" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>312</v>
       </c>
@@ -4185,8 +5812,22 @@
       <c r="D120" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1">
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+    </row>
+    <row r="121" spans="1:24" ht="15" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>314</v>
       </c>
@@ -4199,8 +5840,22 @@
       <c r="D121" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1">
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+    </row>
+    <row r="122" spans="1:24" ht="15" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>315</v>
       </c>
@@ -4213,8 +5868,22 @@
       <c r="D122" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1">
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+    </row>
+    <row r="123" spans="1:24" ht="15" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>318</v>
       </c>
@@ -4227,8 +5896,22 @@
       <c r="D123" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1">
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+    </row>
+    <row r="124" spans="1:24" ht="15" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>319</v>
       </c>
@@ -4244,8 +5927,22 @@
       <c r="E124" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1">
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+    </row>
+    <row r="125" spans="1:24" ht="15" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>320</v>
       </c>
@@ -4258,8 +5955,22 @@
       <c r="D125" s="7" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1">
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+      <c r="X125"/>
+    </row>
+    <row r="126" spans="1:24" ht="15" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>323</v>
       </c>
@@ -4272,8 +5983,22 @@
       <c r="D126" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1">
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+    </row>
+    <row r="127" spans="1:24" ht="15" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>324</v>
       </c>
@@ -4289,8 +6014,22 @@
       <c r="E127" s="7" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1">
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
+      <c r="X127"/>
+    </row>
+    <row r="128" spans="1:24" ht="15" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>328</v>
       </c>
@@ -4303,8 +6042,22 @@
       <c r="D128" s="7" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1">
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+    </row>
+    <row r="129" spans="1:24" ht="15" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>331</v>
       </c>
@@ -4323,8 +6076,22 @@
       <c r="F129" s="7" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1">
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+    </row>
+    <row r="130" spans="1:24" ht="15" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>333</v>
       </c>
@@ -4343,8 +6110,22 @@
       <c r="F130" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1">
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+    </row>
+    <row r="131" spans="1:24" ht="15" customHeight="1">
       <c r="A131" s="5" t="s">
         <v>336</v>
       </c>
@@ -4357,8 +6138,22 @@
       <c r="D131" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1">
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+    </row>
+    <row r="132" spans="1:24" ht="15" customHeight="1">
       <c r="A132" s="5" t="s">
         <v>337</v>
       </c>
@@ -4377,8 +6172,22 @@
       <c r="F132" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1">
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+    </row>
+    <row r="133" spans="1:24" ht="15" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>340</v>
       </c>
@@ -4397,8 +6206,22 @@
       <c r="F133" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1">
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+    </row>
+    <row r="134" spans="1:24" ht="15" customHeight="1">
       <c r="A134" s="5" t="s">
         <v>343</v>
       </c>
@@ -4414,8 +6237,22 @@
       <c r="E134" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1">
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+    </row>
+    <row r="135" spans="1:24" ht="15" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>345</v>
       </c>
@@ -4431,8 +6268,22 @@
       <c r="E135" s="7" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1">
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+    </row>
+    <row r="136" spans="1:24" ht="15" customHeight="1">
       <c r="A136" s="5" t="s">
         <v>346</v>
       </c>
@@ -4448,8 +6299,22 @@
       <c r="E136" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1">
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+    </row>
+    <row r="137" spans="1:24" ht="15" customHeight="1">
       <c r="A137" s="5" t="s">
         <v>348</v>
       </c>
@@ -4462,8 +6327,22 @@
       <c r="D137" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1">
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+    </row>
+    <row r="138" spans="1:24" ht="15" customHeight="1">
       <c r="A138" s="5" t="s">
         <v>349</v>
       </c>
@@ -4479,8 +6358,22 @@
       <c r="E138" s="7" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1">
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+    </row>
+    <row r="139" spans="1:24" ht="15" customHeight="1">
       <c r="A139" s="5" t="s">
         <v>350</v>
       </c>
@@ -4496,8 +6389,22 @@
       <c r="E139" s="7" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1">
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+    </row>
+    <row r="140" spans="1:24" ht="15" customHeight="1">
       <c r="A140" s="5" t="s">
         <v>352</v>
       </c>
@@ -4510,8 +6417,22 @@
       <c r="D140" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1">
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+    </row>
+    <row r="141" spans="1:24" ht="15" customHeight="1">
       <c r="A141" s="5" t="s">
         <v>353</v>
       </c>
@@ -4524,8 +6445,22 @@
       <c r="D141" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1">
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+    </row>
+    <row r="142" spans="1:24" ht="15" customHeight="1">
       <c r="A142" s="5" t="s">
         <v>354</v>
       </c>
@@ -4541,8 +6476,22 @@
       <c r="E142" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1">
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+    </row>
+    <row r="143" spans="1:24" ht="15" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>355</v>
       </c>
@@ -4558,8 +6507,22 @@
       <c r="E143" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1">
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+    </row>
+    <row r="144" spans="1:24" ht="15" customHeight="1">
       <c r="A144" s="5" t="s">
         <v>356</v>
       </c>
@@ -4578,8 +6541,22 @@
       <c r="F144" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" ht="15" customHeight="1">
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+    </row>
+    <row r="145" spans="1:24" ht="15" customHeight="1">
       <c r="A145" s="5" t="s">
         <v>357</v>
       </c>
@@ -4592,8 +6569,22 @@
       <c r="D145" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" ht="15" customHeight="1">
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+    </row>
+    <row r="146" spans="1:24" ht="15" customHeight="1">
       <c r="A146" s="5" t="s">
         <v>358</v>
       </c>
@@ -4609,8 +6600,22 @@
       <c r="E146" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" ht="15" customHeight="1">
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+    </row>
+    <row r="147" spans="1:24" ht="15" customHeight="1">
       <c r="A147" s="5" t="s">
         <v>359</v>
       </c>
@@ -4626,8 +6631,22 @@
       <c r="E147" s="7" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" ht="15" customHeight="1">
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+    </row>
+    <row r="148" spans="1:24" ht="15" customHeight="1">
       <c r="A148" s="5" t="s">
         <v>360</v>
       </c>
@@ -4643,8 +6662,22 @@
       <c r="E148" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" ht="15" customHeight="1">
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+    </row>
+    <row r="149" spans="1:24" ht="15" customHeight="1">
       <c r="A149" s="5" t="s">
         <v>362</v>
       </c>
@@ -4663,8 +6696,22 @@
       <c r="F149" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" ht="15" customHeight="1">
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+    </row>
+    <row r="150" spans="1:24" ht="15" customHeight="1">
       <c r="A150" s="5" t="s">
         <v>364</v>
       </c>
@@ -4680,8 +6727,22 @@
       <c r="E150" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" ht="15" customHeight="1">
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+    </row>
+    <row r="151" spans="1:24" ht="15" customHeight="1">
       <c r="A151" s="5" t="s">
         <v>366</v>
       </c>
@@ -4700,8 +6761,22 @@
       <c r="F151" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" ht="15" customHeight="1">
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+    </row>
+    <row r="152" spans="1:24" ht="15" customHeight="1">
       <c r="A152" s="10" t="s">
         <v>367</v>
       </c>
@@ -4722,21 +6797,22 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
-      <c r="O152" s="12"/>
-      <c r="P152" s="12"/>
-      <c r="Q152" s="12"/>
-      <c r="R152" s="12"/>
-      <c r="S152" s="12"/>
-      <c r="T152" s="12"/>
-      <c r="U152" s="12"/>
-      <c r="V152" s="12"/>
-      <c r="W152" s="12"/>
-    </row>
-    <row r="153" spans="1:23" ht="15" customHeight="1">
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+    </row>
+    <row r="153" spans="1:24" ht="15" customHeight="1">
       <c r="A153" s="5" t="s">
         <v>370</v>
       </c>
@@ -4755,8 +6831,22 @@
       <c r="F153" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" ht="15" customHeight="1">
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+    </row>
+    <row r="154" spans="1:24" ht="15" customHeight="1">
       <c r="A154" s="5" t="s">
         <v>373</v>
       </c>
@@ -4775,8 +6865,22 @@
       <c r="F154" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" ht="15" customHeight="1">
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+    </row>
+    <row r="155" spans="1:24" ht="15" customHeight="1">
       <c r="A155" s="5" t="s">
         <v>378</v>
       </c>
@@ -4792,8 +6896,22 @@
       <c r="E155" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" ht="15" customHeight="1">
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+    </row>
+    <row r="156" spans="1:24" ht="15" customHeight="1">
       <c r="A156" s="5" t="s">
         <v>380</v>
       </c>
@@ -4809,8 +6927,22 @@
       <c r="E156" s="7" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" ht="15" customHeight="1">
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+    </row>
+    <row r="157" spans="1:24" ht="15" customHeight="1">
       <c r="A157" s="5" t="s">
         <v>382</v>
       </c>
@@ -4826,8 +6958,22 @@
       <c r="E157" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" ht="15" customHeight="1">
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+    </row>
+    <row r="158" spans="1:24" ht="15" customHeight="1">
       <c r="A158" s="5" t="s">
         <v>384</v>
       </c>
@@ -4843,8 +6989,22 @@
       <c r="E158" s="7" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" ht="15" customHeight="1">
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+      <c r="S158"/>
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+    </row>
+    <row r="159" spans="1:24" ht="15" customHeight="1">
       <c r="A159" s="5" t="s">
         <v>386</v>
       </c>
@@ -4863,8 +7023,22 @@
       <c r="F159" s="7" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" ht="15" customHeight="1">
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+      <c r="X159"/>
+    </row>
+    <row r="160" spans="1:24" ht="15" customHeight="1">
       <c r="A160" s="5" t="s">
         <v>390</v>
       </c>
@@ -4880,8 +7054,22 @@
       <c r="E160" s="7" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1">
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160"/>
+      <c r="S160"/>
+      <c r="T160"/>
+      <c r="U160"/>
+      <c r="V160"/>
+      <c r="W160"/>
+      <c r="X160"/>
+    </row>
+    <row r="161" spans="1:24" ht="15" customHeight="1">
       <c r="A161" s="5" t="s">
         <v>392</v>
       </c>
@@ -4894,8 +7082,22 @@
       <c r="D161" s="7" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1">
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161"/>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161"/>
+      <c r="V161"/>
+      <c r="W161"/>
+      <c r="X161"/>
+    </row>
+    <row r="162" spans="1:24" ht="15" customHeight="1">
       <c r="A162" s="5" t="s">
         <v>395</v>
       </c>
@@ -4911,8 +7113,22 @@
       <c r="E162" s="7" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1">
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162"/>
+      <c r="S162"/>
+      <c r="T162"/>
+      <c r="U162"/>
+      <c r="V162"/>
+      <c r="W162"/>
+      <c r="X162"/>
+    </row>
+    <row r="163" spans="1:24" ht="15" customHeight="1">
       <c r="A163" s="5" t="s">
         <v>396</v>
       </c>
@@ -4931,8 +7147,22 @@
       <c r="F163" s="7" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1">
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+      <c r="Q163"/>
+      <c r="R163"/>
+      <c r="S163"/>
+      <c r="T163"/>
+      <c r="U163"/>
+      <c r="V163"/>
+      <c r="W163"/>
+      <c r="X163"/>
+    </row>
+    <row r="164" spans="1:24" ht="15" customHeight="1">
       <c r="A164" s="5" t="s">
         <v>399</v>
       </c>
@@ -4945,8 +7175,22 @@
       <c r="D164" s="7" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1">
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+      <c r="Q164"/>
+      <c r="R164"/>
+      <c r="S164"/>
+      <c r="T164"/>
+      <c r="U164"/>
+      <c r="V164"/>
+      <c r="W164"/>
+      <c r="X164"/>
+    </row>
+    <row r="165" spans="1:24" ht="15" customHeight="1">
       <c r="A165" s="5" t="s">
         <v>402</v>
       </c>
@@ -4962,8 +7206,22 @@
       <c r="E165" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1">
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165"/>
+      <c r="R165"/>
+      <c r="S165"/>
+      <c r="T165"/>
+      <c r="U165"/>
+      <c r="V165"/>
+      <c r="W165"/>
+      <c r="X165"/>
+    </row>
+    <row r="166" spans="1:24" ht="15" customHeight="1">
       <c r="A166" s="5" t="s">
         <v>403</v>
       </c>
@@ -4979,8 +7237,22 @@
       <c r="E166" s="7" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1">
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+      <c r="Q166"/>
+      <c r="R166"/>
+      <c r="S166"/>
+      <c r="T166"/>
+      <c r="U166"/>
+      <c r="V166"/>
+      <c r="W166"/>
+      <c r="X166"/>
+    </row>
+    <row r="167" spans="1:24" ht="15" customHeight="1">
       <c r="A167" s="5" t="s">
         <v>405</v>
       </c>
@@ -4999,8 +7271,22 @@
       <c r="F167" s="7" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1">
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+      <c r="Q167"/>
+      <c r="R167"/>
+      <c r="S167"/>
+      <c r="T167"/>
+      <c r="U167"/>
+      <c r="V167"/>
+      <c r="W167"/>
+      <c r="X167"/>
+    </row>
+    <row r="168" spans="1:24" ht="15" customHeight="1">
       <c r="A168" s="5" t="s">
         <v>408</v>
       </c>
@@ -5013,8 +7299,22 @@
       <c r="D168" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1">
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+      <c r="Q168"/>
+      <c r="R168"/>
+      <c r="S168"/>
+      <c r="T168"/>
+      <c r="U168"/>
+      <c r="V168"/>
+      <c r="W168"/>
+      <c r="X168"/>
+    </row>
+    <row r="169" spans="1:24" ht="15" customHeight="1">
       <c r="A169" s="5" t="s">
         <v>409</v>
       </c>
@@ -5033,8 +7333,22 @@
       <c r="F169" s="7" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1">
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169"/>
+      <c r="S169"/>
+      <c r="T169"/>
+      <c r="U169"/>
+      <c r="V169"/>
+      <c r="W169"/>
+      <c r="X169"/>
+    </row>
+    <row r="170" spans="1:24" ht="15" customHeight="1">
       <c r="A170" s="5" t="s">
         <v>412</v>
       </c>
@@ -5050,8 +7364,22 @@
       <c r="E170" s="7" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1">
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+      <c r="Q170"/>
+      <c r="R170"/>
+      <c r="S170"/>
+      <c r="T170"/>
+      <c r="U170"/>
+      <c r="V170"/>
+      <c r="W170"/>
+      <c r="X170"/>
+    </row>
+    <row r="171" spans="1:24" ht="15" customHeight="1">
       <c r="A171" s="5" t="s">
         <v>413</v>
       </c>
@@ -5070,8 +7398,22 @@
       <c r="F171" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1">
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+      <c r="Q171"/>
+      <c r="R171"/>
+      <c r="S171"/>
+      <c r="T171"/>
+      <c r="U171"/>
+      <c r="V171"/>
+      <c r="W171"/>
+      <c r="X171"/>
+    </row>
+    <row r="172" spans="1:24" ht="15" customHeight="1">
       <c r="A172" s="5" t="s">
         <v>415</v>
       </c>
@@ -5084,8 +7426,22 @@
       <c r="D172" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1">
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+      <c r="Q172"/>
+      <c r="R172"/>
+      <c r="S172"/>
+      <c r="T172"/>
+      <c r="U172"/>
+      <c r="V172"/>
+      <c r="W172"/>
+      <c r="X172"/>
+    </row>
+    <row r="173" spans="1:24" ht="15" customHeight="1">
       <c r="A173" s="5" t="s">
         <v>417</v>
       </c>
@@ -5101,8 +7457,22 @@
       <c r="E173" s="7" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1">
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+      <c r="Q173"/>
+      <c r="R173"/>
+      <c r="S173"/>
+      <c r="T173"/>
+      <c r="U173"/>
+      <c r="V173"/>
+      <c r="W173"/>
+      <c r="X173"/>
+    </row>
+    <row r="174" spans="1:24" ht="15" customHeight="1">
       <c r="A174" s="5" t="s">
         <v>420</v>
       </c>
@@ -5124,8 +7494,22 @@
       <c r="G174" s="7" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1">
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174"/>
+      <c r="Q174"/>
+      <c r="R174"/>
+      <c r="S174"/>
+      <c r="T174"/>
+      <c r="U174"/>
+      <c r="V174"/>
+      <c r="W174"/>
+      <c r="X174"/>
+    </row>
+    <row r="175" spans="1:24" ht="15" customHeight="1">
       <c r="A175" s="5" t="s">
         <v>424</v>
       </c>
@@ -5144,8 +7528,22 @@
       <c r="F175" s="7" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1">
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+      <c r="Q175"/>
+      <c r="R175"/>
+      <c r="S175"/>
+      <c r="T175"/>
+      <c r="U175"/>
+      <c r="V175"/>
+      <c r="W175"/>
+      <c r="X175"/>
+    </row>
+    <row r="176" spans="1:24" ht="15" customHeight="1">
       <c r="A176" s="5" t="s">
         <v>425</v>
       </c>
@@ -5167,8 +7565,22 @@
       <c r="G176" s="7" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1">
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+      <c r="Q176"/>
+      <c r="R176"/>
+      <c r="S176"/>
+      <c r="T176"/>
+      <c r="U176"/>
+      <c r="V176"/>
+      <c r="W176"/>
+      <c r="X176"/>
+    </row>
+    <row r="177" spans="1:24" ht="15" customHeight="1">
       <c r="A177" s="5" t="s">
         <v>429</v>
       </c>
@@ -5184,8 +7596,22 @@
       <c r="E177" s="7" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1">
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+      <c r="Q177"/>
+      <c r="R177"/>
+      <c r="S177"/>
+      <c r="T177"/>
+      <c r="U177"/>
+      <c r="V177"/>
+      <c r="W177"/>
+      <c r="X177"/>
+    </row>
+    <row r="178" spans="1:24" ht="15" customHeight="1">
       <c r="A178" s="5" t="s">
         <v>432</v>
       </c>
@@ -5204,8 +7630,22 @@
       <c r="F178" s="7" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="15" customHeight="1">
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+      <c r="Q178"/>
+      <c r="R178"/>
+      <c r="S178"/>
+      <c r="T178"/>
+      <c r="U178"/>
+      <c r="V178"/>
+      <c r="W178"/>
+      <c r="X178"/>
+    </row>
+    <row r="179" spans="1:24" ht="15" customHeight="1">
       <c r="A179" s="5" t="s">
         <v>434</v>
       </c>
@@ -5227,8 +7667,22 @@
       <c r="G179" s="7" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1">
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+      <c r="Q179"/>
+      <c r="R179"/>
+      <c r="S179"/>
+      <c r="T179"/>
+      <c r="U179"/>
+      <c r="V179"/>
+      <c r="W179"/>
+      <c r="X179"/>
+    </row>
+    <row r="180" spans="1:24" ht="15" customHeight="1">
       <c r="A180" s="5" t="s">
         <v>435</v>
       </c>
@@ -5244,8 +7698,22 @@
       <c r="E180" s="7" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="15" customHeight="1">
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+      <c r="Q180"/>
+      <c r="R180"/>
+      <c r="S180"/>
+      <c r="T180"/>
+      <c r="U180"/>
+      <c r="V180"/>
+      <c r="W180"/>
+      <c r="X180"/>
+    </row>
+    <row r="181" spans="1:24" ht="15" customHeight="1">
       <c r="A181" s="5" t="s">
         <v>436</v>
       </c>
@@ -5261,8 +7729,22 @@
       <c r="E181" s="7" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="15" customHeight="1">
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
+      <c r="O181"/>
+      <c r="P181"/>
+      <c r="Q181"/>
+      <c r="R181"/>
+      <c r="S181"/>
+      <c r="T181"/>
+      <c r="U181"/>
+      <c r="V181"/>
+      <c r="W181"/>
+      <c r="X181"/>
+    </row>
+    <row r="182" spans="1:24" ht="15" customHeight="1">
       <c r="A182" s="5" t="s">
         <v>437</v>
       </c>
@@ -5281,8 +7763,22 @@
       <c r="F182" s="7" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1">
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+      <c r="Q182"/>
+      <c r="R182"/>
+      <c r="S182"/>
+      <c r="T182"/>
+      <c r="U182"/>
+      <c r="V182"/>
+      <c r="W182"/>
+      <c r="X182"/>
+    </row>
+    <row r="183" spans="1:24" ht="15" customHeight="1">
       <c r="A183" s="5" t="s">
         <v>439</v>
       </c>
@@ -5298,8 +7794,22 @@
       <c r="E183" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="15" customHeight="1">
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
+      <c r="P183"/>
+      <c r="Q183"/>
+      <c r="R183"/>
+      <c r="S183"/>
+      <c r="T183"/>
+      <c r="U183"/>
+      <c r="V183"/>
+      <c r="W183"/>
+      <c r="X183"/>
+    </row>
+    <row r="184" spans="1:24" ht="15" customHeight="1">
       <c r="A184" s="5" t="s">
         <v>440</v>
       </c>
@@ -5321,8 +7831,22 @@
       <c r="G184" s="7" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="15" customHeight="1">
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184"/>
+      <c r="P184"/>
+      <c r="Q184"/>
+      <c r="R184"/>
+      <c r="S184"/>
+      <c r="T184"/>
+      <c r="U184"/>
+      <c r="V184"/>
+      <c r="W184"/>
+      <c r="X184"/>
+    </row>
+    <row r="185" spans="1:24" ht="15" customHeight="1">
       <c r="A185" s="5" t="s">
         <v>442</v>
       </c>
@@ -5341,8 +7865,22 @@
       <c r="F185" s="7" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1">
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+      <c r="Q185"/>
+      <c r="R185"/>
+      <c r="S185"/>
+      <c r="T185"/>
+      <c r="U185"/>
+      <c r="V185"/>
+      <c r="W185"/>
+      <c r="X185"/>
+    </row>
+    <row r="186" spans="1:24" ht="15" customHeight="1">
       <c r="A186" s="5" t="s">
         <v>446</v>
       </c>
@@ -5358,8 +7896,22 @@
       <c r="E186" s="7" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="15" customHeight="1">
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186"/>
+      <c r="Q186"/>
+      <c r="R186"/>
+      <c r="S186"/>
+      <c r="T186"/>
+      <c r="U186"/>
+      <c r="V186"/>
+      <c r="W186"/>
+      <c r="X186"/>
+    </row>
+    <row r="187" spans="1:24" ht="15" customHeight="1">
       <c r="A187" s="5" t="s">
         <v>448</v>
       </c>
@@ -5378,8 +7930,22 @@
       <c r="F187" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="15" customHeight="1">
+      <c r="K187"/>
+      <c r="L187"/>
+      <c r="M187"/>
+      <c r="N187"/>
+      <c r="O187"/>
+      <c r="P187"/>
+      <c r="Q187"/>
+      <c r="R187"/>
+      <c r="S187"/>
+      <c r="T187"/>
+      <c r="U187"/>
+      <c r="V187"/>
+      <c r="W187"/>
+      <c r="X187"/>
+    </row>
+    <row r="188" spans="1:24" ht="15" customHeight="1">
       <c r="A188" s="5" t="s">
         <v>451</v>
       </c>
@@ -5398,8 +7964,22 @@
       <c r="F188" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1">
+      <c r="K188"/>
+      <c r="L188"/>
+      <c r="M188"/>
+      <c r="N188"/>
+      <c r="O188"/>
+      <c r="P188"/>
+      <c r="Q188"/>
+      <c r="R188"/>
+      <c r="S188"/>
+      <c r="T188"/>
+      <c r="U188"/>
+      <c r="V188"/>
+      <c r="W188"/>
+      <c r="X188"/>
+    </row>
+    <row r="189" spans="1:24" ht="15" customHeight="1">
       <c r="A189" s="5" t="s">
         <v>452</v>
       </c>
@@ -5418,8 +7998,22 @@
       <c r="F189" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1">
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
+      <c r="O189"/>
+      <c r="P189"/>
+      <c r="Q189"/>
+      <c r="R189"/>
+      <c r="S189"/>
+      <c r="T189"/>
+      <c r="U189"/>
+      <c r="V189"/>
+      <c r="W189"/>
+      <c r="X189"/>
+    </row>
+    <row r="190" spans="1:24" ht="15" customHeight="1">
       <c r="A190" s="5" t="s">
         <v>454</v>
       </c>
@@ -5435,8 +8029,22 @@
       <c r="E190" s="7" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1">
+      <c r="K190"/>
+      <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
+      <c r="O190"/>
+      <c r="P190"/>
+      <c r="Q190"/>
+      <c r="R190"/>
+      <c r="S190"/>
+      <c r="T190"/>
+      <c r="U190"/>
+      <c r="V190"/>
+      <c r="W190"/>
+      <c r="X190"/>
+    </row>
+    <row r="191" spans="1:24" ht="15" customHeight="1">
       <c r="A191" s="5" t="s">
         <v>455</v>
       </c>
@@ -5455,8 +8063,22 @@
       <c r="F191" s="7" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1">
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
+      <c r="O191"/>
+      <c r="P191"/>
+      <c r="Q191"/>
+      <c r="R191"/>
+      <c r="S191"/>
+      <c r="T191"/>
+      <c r="U191"/>
+      <c r="V191"/>
+      <c r="W191"/>
+      <c r="X191"/>
+    </row>
+    <row r="192" spans="1:24" ht="15" customHeight="1">
       <c r="A192" s="5" t="s">
         <v>458</v>
       </c>
@@ -5472,8 +8094,22 @@
       <c r="E192" s="7" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" ht="15" customHeight="1">
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
+      <c r="O192"/>
+      <c r="P192"/>
+      <c r="Q192"/>
+      <c r="R192"/>
+      <c r="S192"/>
+      <c r="T192"/>
+      <c r="U192"/>
+      <c r="V192"/>
+      <c r="W192"/>
+      <c r="X192"/>
+    </row>
+    <row r="193" spans="1:24" ht="15" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>460</v>
       </c>
@@ -5489,8 +8125,22 @@
       <c r="E193" s="7" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" ht="15" customHeight="1">
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+      <c r="O193"/>
+      <c r="P193"/>
+      <c r="Q193"/>
+      <c r="R193"/>
+      <c r="S193"/>
+      <c r="T193"/>
+      <c r="U193"/>
+      <c r="V193"/>
+      <c r="W193"/>
+      <c r="X193"/>
+    </row>
+    <row r="194" spans="1:24" ht="15" customHeight="1">
       <c r="A194" s="5" t="s">
         <v>462</v>
       </c>
@@ -5506,8 +8156,22 @@
       <c r="E194" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" ht="15" customHeight="1">
+      <c r="K194"/>
+      <c r="L194"/>
+      <c r="M194"/>
+      <c r="N194"/>
+      <c r="O194"/>
+      <c r="P194"/>
+      <c r="Q194"/>
+      <c r="R194"/>
+      <c r="S194"/>
+      <c r="T194"/>
+      <c r="U194"/>
+      <c r="V194"/>
+      <c r="W194"/>
+      <c r="X194"/>
+    </row>
+    <row r="195" spans="1:24" ht="15" customHeight="1">
       <c r="A195" s="5" t="s">
         <v>463</v>
       </c>
@@ -5529,8 +8193,22 @@
       <c r="G195" s="7" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" ht="15" customHeight="1">
+      <c r="K195"/>
+      <c r="L195"/>
+      <c r="M195"/>
+      <c r="N195"/>
+      <c r="O195"/>
+      <c r="P195"/>
+      <c r="Q195"/>
+      <c r="R195"/>
+      <c r="S195"/>
+      <c r="T195"/>
+      <c r="U195"/>
+      <c r="V195"/>
+      <c r="W195"/>
+      <c r="X195"/>
+    </row>
+    <row r="196" spans="1:24" ht="15" customHeight="1">
       <c r="A196" s="5" t="s">
         <v>465</v>
       </c>
@@ -5552,8 +8230,22 @@
       <c r="G196" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" ht="15" customHeight="1">
+      <c r="K196"/>
+      <c r="L196"/>
+      <c r="M196"/>
+      <c r="N196"/>
+      <c r="O196"/>
+      <c r="P196"/>
+      <c r="Q196"/>
+      <c r="R196"/>
+      <c r="S196"/>
+      <c r="T196"/>
+      <c r="U196"/>
+      <c r="V196"/>
+      <c r="W196"/>
+      <c r="X196"/>
+    </row>
+    <row r="197" spans="1:24" ht="15" customHeight="1">
       <c r="A197" s="5" t="s">
         <v>469</v>
       </c>
@@ -5572,8 +8264,22 @@
       <c r="F197" s="7" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" ht="15" customHeight="1">
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
+      <c r="Q197"/>
+      <c r="R197"/>
+      <c r="S197"/>
+      <c r="T197"/>
+      <c r="U197"/>
+      <c r="V197"/>
+      <c r="W197"/>
+      <c r="X197"/>
+    </row>
+    <row r="198" spans="1:24" ht="15" customHeight="1">
       <c r="A198" s="5" t="s">
         <v>471</v>
       </c>
@@ -5589,8 +8295,22 @@
       <c r="E198" s="7" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" ht="15" customHeight="1">
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+      <c r="Q198"/>
+      <c r="R198"/>
+      <c r="S198"/>
+      <c r="T198"/>
+      <c r="U198"/>
+      <c r="V198"/>
+      <c r="W198"/>
+      <c r="X198"/>
+    </row>
+    <row r="199" spans="1:24" ht="15" customHeight="1">
       <c r="A199" s="10" t="s">
         <v>473</v>
       </c>
@@ -5613,21 +8333,22 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
       <c r="J199" s="12"/>
-      <c r="K199" s="12"/>
-      <c r="L199" s="12"/>
-      <c r="M199" s="12"/>
-      <c r="N199" s="12"/>
-      <c r="O199" s="12"/>
-      <c r="P199" s="12"/>
-      <c r="Q199" s="12"/>
-      <c r="R199" s="12"/>
-      <c r="S199" s="12"/>
-      <c r="T199" s="12"/>
-      <c r="U199" s="12"/>
-      <c r="V199" s="12"/>
-      <c r="W199" s="12"/>
-    </row>
-    <row r="200" spans="1:23" ht="15" customHeight="1">
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+      <c r="Q199"/>
+      <c r="R199"/>
+      <c r="S199"/>
+      <c r="T199"/>
+      <c r="U199"/>
+      <c r="V199"/>
+      <c r="W199"/>
+      <c r="X199"/>
+    </row>
+    <row r="200" spans="1:24" ht="15" customHeight="1">
       <c r="A200" s="5" t="s">
         <v>475</v>
       </c>
@@ -5643,8 +8364,22 @@
       <c r="E200" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" ht="15" customHeight="1">
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
+      <c r="Q200"/>
+      <c r="R200"/>
+      <c r="S200"/>
+      <c r="T200"/>
+      <c r="U200"/>
+      <c r="V200"/>
+      <c r="W200"/>
+      <c r="X200"/>
+    </row>
+    <row r="201" spans="1:24" ht="15" customHeight="1">
       <c r="A201" s="5" t="s">
         <v>476</v>
       </c>
@@ -5663,8 +8398,22 @@
       <c r="F201" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" ht="15" customHeight="1">
+      <c r="K201"/>
+      <c r="L201"/>
+      <c r="M201"/>
+      <c r="N201"/>
+      <c r="O201"/>
+      <c r="P201"/>
+      <c r="Q201"/>
+      <c r="R201"/>
+      <c r="S201"/>
+      <c r="T201"/>
+      <c r="U201"/>
+      <c r="V201"/>
+      <c r="W201"/>
+      <c r="X201"/>
+    </row>
+    <row r="202" spans="1:24" ht="15" customHeight="1">
       <c r="A202" s="5" t="s">
         <v>477</v>
       </c>
@@ -5683,8 +8432,22 @@
       <c r="F202" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" ht="15" customHeight="1">
+      <c r="K202"/>
+      <c r="L202"/>
+      <c r="M202"/>
+      <c r="N202"/>
+      <c r="O202"/>
+      <c r="P202"/>
+      <c r="Q202"/>
+      <c r="R202"/>
+      <c r="S202"/>
+      <c r="T202"/>
+      <c r="U202"/>
+      <c r="V202"/>
+      <c r="W202"/>
+      <c r="X202"/>
+    </row>
+    <row r="203" spans="1:24" ht="15" customHeight="1">
       <c r="A203" s="5" t="s">
         <v>478</v>
       </c>
@@ -5697,8 +8460,22 @@
       <c r="D203" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" ht="15" customHeight="1">
+      <c r="K203"/>
+      <c r="L203"/>
+      <c r="M203"/>
+      <c r="N203"/>
+      <c r="O203"/>
+      <c r="P203"/>
+      <c r="Q203"/>
+      <c r="R203"/>
+      <c r="S203"/>
+      <c r="T203"/>
+      <c r="U203"/>
+      <c r="V203"/>
+      <c r="W203"/>
+      <c r="X203"/>
+    </row>
+    <row r="204" spans="1:24" ht="15" customHeight="1">
       <c r="A204" s="5" t="s">
         <v>479</v>
       </c>
@@ -5711,8 +8488,22 @@
       <c r="D204" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" ht="15" customHeight="1">
+      <c r="K204"/>
+      <c r="L204"/>
+      <c r="M204"/>
+      <c r="N204"/>
+      <c r="O204"/>
+      <c r="P204"/>
+      <c r="Q204"/>
+      <c r="R204"/>
+      <c r="S204"/>
+      <c r="T204"/>
+      <c r="U204"/>
+      <c r="V204"/>
+      <c r="W204"/>
+      <c r="X204"/>
+    </row>
+    <row r="205" spans="1:24" ht="15" customHeight="1">
       <c r="A205" s="5" t="s">
         <v>480</v>
       </c>
@@ -5731,8 +8522,22 @@
       <c r="F205" s="7" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" ht="15" customHeight="1">
+      <c r="K205"/>
+      <c r="L205"/>
+      <c r="M205"/>
+      <c r="N205"/>
+      <c r="O205"/>
+      <c r="P205"/>
+      <c r="Q205"/>
+      <c r="R205"/>
+      <c r="S205"/>
+      <c r="T205"/>
+      <c r="U205"/>
+      <c r="V205"/>
+      <c r="W205"/>
+      <c r="X205"/>
+    </row>
+    <row r="206" spans="1:24" ht="15" customHeight="1">
       <c r="A206" s="5" t="s">
         <v>483</v>
       </c>
@@ -5748,8 +8553,22 @@
       <c r="E206" s="7" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" ht="15" customHeight="1">
+      <c r="K206"/>
+      <c r="L206"/>
+      <c r="M206"/>
+      <c r="N206"/>
+      <c r="O206"/>
+      <c r="P206"/>
+      <c r="Q206"/>
+      <c r="R206"/>
+      <c r="S206"/>
+      <c r="T206"/>
+      <c r="U206"/>
+      <c r="V206"/>
+      <c r="W206"/>
+      <c r="X206"/>
+    </row>
+    <row r="207" spans="1:24" ht="15" customHeight="1">
       <c r="A207" s="5" t="s">
         <v>486</v>
       </c>
@@ -5768,8 +8587,22 @@
       <c r="F207" s="7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" ht="15" customHeight="1">
+      <c r="K207"/>
+      <c r="L207"/>
+      <c r="M207"/>
+      <c r="N207"/>
+      <c r="O207"/>
+      <c r="P207"/>
+      <c r="Q207"/>
+      <c r="R207"/>
+      <c r="S207"/>
+      <c r="T207"/>
+      <c r="U207"/>
+      <c r="V207"/>
+      <c r="W207"/>
+      <c r="X207"/>
+    </row>
+    <row r="208" spans="1:24" ht="15" customHeight="1">
       <c r="A208" s="5" t="s">
         <v>489</v>
       </c>
@@ -5788,8 +8621,22 @@
       <c r="F208" s="7" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="15" customHeight="1">
+      <c r="K208"/>
+      <c r="L208"/>
+      <c r="M208"/>
+      <c r="N208"/>
+      <c r="O208"/>
+      <c r="P208"/>
+      <c r="Q208"/>
+      <c r="R208"/>
+      <c r="S208"/>
+      <c r="T208"/>
+      <c r="U208"/>
+      <c r="V208"/>
+      <c r="W208"/>
+      <c r="X208"/>
+    </row>
+    <row r="209" spans="1:24" ht="15" customHeight="1">
       <c r="A209" s="5" t="s">
         <v>491</v>
       </c>
@@ -5814,8 +8661,22 @@
       <c r="H209" s="7" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="15" customHeight="1">
+      <c r="K209"/>
+      <c r="L209"/>
+      <c r="M209"/>
+      <c r="N209"/>
+      <c r="O209"/>
+      <c r="P209"/>
+      <c r="Q209"/>
+      <c r="R209"/>
+      <c r="S209"/>
+      <c r="T209"/>
+      <c r="U209"/>
+      <c r="V209"/>
+      <c r="W209"/>
+      <c r="X209"/>
+    </row>
+    <row r="210" spans="1:24" ht="15" customHeight="1">
       <c r="A210" s="5" t="s">
         <v>495</v>
       </c>
@@ -5834,8 +8695,22 @@
       <c r="F210" s="7" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="15" customHeight="1">
+      <c r="K210"/>
+      <c r="L210"/>
+      <c r="M210"/>
+      <c r="N210"/>
+      <c r="O210"/>
+      <c r="P210"/>
+      <c r="Q210"/>
+      <c r="R210"/>
+      <c r="S210"/>
+      <c r="T210"/>
+      <c r="U210"/>
+      <c r="V210"/>
+      <c r="W210"/>
+      <c r="X210"/>
+    </row>
+    <row r="211" spans="1:24" ht="15" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>498</v>
       </c>
@@ -5851,8 +8726,22 @@
       <c r="E211" s="7" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="15" customHeight="1">
+      <c r="K211"/>
+      <c r="L211"/>
+      <c r="M211"/>
+      <c r="N211"/>
+      <c r="O211"/>
+      <c r="P211"/>
+      <c r="Q211"/>
+      <c r="R211"/>
+      <c r="S211"/>
+      <c r="T211"/>
+      <c r="U211"/>
+      <c r="V211"/>
+      <c r="W211"/>
+      <c r="X211"/>
+    </row>
+    <row r="212" spans="1:24" ht="15" customHeight="1">
       <c r="A212" s="5" t="s">
         <v>502</v>
       </c>
@@ -5871,8 +8760,22 @@
       <c r="F212" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="15" customHeight="1">
+      <c r="K212"/>
+      <c r="L212"/>
+      <c r="M212"/>
+      <c r="N212"/>
+      <c r="O212"/>
+      <c r="P212"/>
+      <c r="Q212"/>
+      <c r="R212"/>
+      <c r="S212"/>
+      <c r="T212"/>
+      <c r="U212"/>
+      <c r="V212"/>
+      <c r="W212"/>
+      <c r="X212"/>
+    </row>
+    <row r="213" spans="1:24" ht="15" customHeight="1">
       <c r="A213" s="5" t="s">
         <v>504</v>
       </c>
@@ -5888,8 +8791,22 @@
       <c r="E213" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="15" customHeight="1">
+      <c r="K213"/>
+      <c r="L213"/>
+      <c r="M213"/>
+      <c r="N213"/>
+      <c r="O213"/>
+      <c r="P213"/>
+      <c r="Q213"/>
+      <c r="R213"/>
+      <c r="S213"/>
+      <c r="T213"/>
+      <c r="U213"/>
+      <c r="V213"/>
+      <c r="W213"/>
+      <c r="X213"/>
+    </row>
+    <row r="214" spans="1:24" ht="15" customHeight="1">
       <c r="A214" s="5" t="s">
         <v>507</v>
       </c>
@@ -5908,8 +8825,22 @@
       <c r="F214" s="7" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="15" customHeight="1">
+      <c r="K214"/>
+      <c r="L214"/>
+      <c r="M214"/>
+      <c r="N214"/>
+      <c r="O214"/>
+      <c r="P214"/>
+      <c r="Q214"/>
+      <c r="R214"/>
+      <c r="S214"/>
+      <c r="T214"/>
+      <c r="U214"/>
+      <c r="V214"/>
+      <c r="W214"/>
+      <c r="X214"/>
+    </row>
+    <row r="215" spans="1:24" ht="15" customHeight="1">
       <c r="A215" s="5" t="s">
         <v>511</v>
       </c>
@@ -5928,8 +8859,22 @@
       <c r="F215" s="7" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="15" customHeight="1">
+      <c r="K215"/>
+      <c r="L215"/>
+      <c r="M215"/>
+      <c r="N215"/>
+      <c r="O215"/>
+      <c r="P215"/>
+      <c r="Q215"/>
+      <c r="R215"/>
+      <c r="S215"/>
+      <c r="T215"/>
+      <c r="U215"/>
+      <c r="V215"/>
+      <c r="W215"/>
+      <c r="X215"/>
+    </row>
+    <row r="216" spans="1:24" ht="15" customHeight="1">
       <c r="A216" s="5" t="s">
         <v>512</v>
       </c>
@@ -5948,8 +8893,22 @@
       <c r="F216" s="7" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="15" customHeight="1">
+      <c r="K216"/>
+      <c r="L216"/>
+      <c r="M216"/>
+      <c r="N216"/>
+      <c r="O216"/>
+      <c r="P216"/>
+      <c r="Q216"/>
+      <c r="R216"/>
+      <c r="S216"/>
+      <c r="T216"/>
+      <c r="U216"/>
+      <c r="V216"/>
+      <c r="W216"/>
+      <c r="X216"/>
+    </row>
+    <row r="217" spans="1:24" ht="15" customHeight="1">
       <c r="A217" s="5" t="s">
         <v>514</v>
       </c>
@@ -5962,8 +8921,22 @@
       <c r="D217" s="7" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="15" customHeight="1">
+      <c r="K217"/>
+      <c r="L217"/>
+      <c r="M217"/>
+      <c r="N217"/>
+      <c r="O217"/>
+      <c r="P217"/>
+      <c r="Q217"/>
+      <c r="R217"/>
+      <c r="S217"/>
+      <c r="T217"/>
+      <c r="U217"/>
+      <c r="V217"/>
+      <c r="W217"/>
+      <c r="X217"/>
+    </row>
+    <row r="218" spans="1:24" ht="15" customHeight="1">
       <c r="A218" s="5" t="s">
         <v>517</v>
       </c>
@@ -5982,8 +8955,22 @@
       <c r="F218" s="7" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="15" customHeight="1">
+      <c r="K218"/>
+      <c r="L218"/>
+      <c r="M218"/>
+      <c r="N218"/>
+      <c r="O218"/>
+      <c r="P218"/>
+      <c r="Q218"/>
+      <c r="R218"/>
+      <c r="S218"/>
+      <c r="T218"/>
+      <c r="U218"/>
+      <c r="V218"/>
+      <c r="W218"/>
+      <c r="X218"/>
+    </row>
+    <row r="219" spans="1:24" ht="15" customHeight="1">
       <c r="A219" s="5" t="s">
         <v>521</v>
       </c>
@@ -5999,8 +8986,22 @@
       <c r="E219" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="15" customHeight="1">
+      <c r="K219"/>
+      <c r="L219"/>
+      <c r="M219"/>
+      <c r="N219"/>
+      <c r="O219"/>
+      <c r="P219"/>
+      <c r="Q219"/>
+      <c r="R219"/>
+      <c r="S219"/>
+      <c r="T219"/>
+      <c r="U219"/>
+      <c r="V219"/>
+      <c r="W219"/>
+      <c r="X219"/>
+    </row>
+    <row r="220" spans="1:24" ht="15" customHeight="1">
       <c r="A220" s="5" t="s">
         <v>522</v>
       </c>
@@ -6019,8 +9020,22 @@
       <c r="F220" s="7" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="15" customHeight="1">
+      <c r="K220"/>
+      <c r="L220"/>
+      <c r="M220"/>
+      <c r="N220"/>
+      <c r="O220"/>
+      <c r="P220"/>
+      <c r="Q220"/>
+      <c r="R220"/>
+      <c r="S220"/>
+      <c r="T220"/>
+      <c r="U220"/>
+      <c r="V220"/>
+      <c r="W220"/>
+      <c r="X220"/>
+    </row>
+    <row r="221" spans="1:24" ht="15" customHeight="1">
       <c r="A221" s="5" t="s">
         <v>525</v>
       </c>
@@ -6036,8 +9051,22 @@
       <c r="E221" s="7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="15" customHeight="1">
+      <c r="K221"/>
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="N221"/>
+      <c r="O221"/>
+      <c r="P221"/>
+      <c r="Q221"/>
+      <c r="R221"/>
+      <c r="S221"/>
+      <c r="T221"/>
+      <c r="U221"/>
+      <c r="V221"/>
+      <c r="W221"/>
+      <c r="X221"/>
+    </row>
+    <row r="222" spans="1:24" ht="15" customHeight="1">
       <c r="A222" s="13" t="s">
         <v>526</v>
       </c>
@@ -6053,13 +9082,729 @@
       <c r="E222" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="226" spans="4:8" ht="15" customHeight="1">
+      <c r="K222"/>
+      <c r="L222"/>
+      <c r="M222"/>
+      <c r="N222"/>
+      <c r="O222"/>
+      <c r="P222"/>
+      <c r="Q222"/>
+      <c r="R222"/>
+      <c r="S222"/>
+      <c r="T222"/>
+      <c r="U222"/>
+      <c r="V222"/>
+      <c r="W222"/>
+      <c r="X222"/>
+    </row>
+    <row r="223" spans="1:24" ht="15" customHeight="1">
+      <c r="K223"/>
+      <c r="L223"/>
+      <c r="M223"/>
+      <c r="N223"/>
+      <c r="O223"/>
+      <c r="P223"/>
+      <c r="Q223"/>
+      <c r="R223"/>
+      <c r="S223"/>
+      <c r="T223"/>
+      <c r="U223"/>
+      <c r="V223"/>
+      <c r="W223"/>
+      <c r="X223"/>
+    </row>
+    <row r="224" spans="1:24" ht="15" customHeight="1">
+      <c r="K224"/>
+      <c r="L224"/>
+      <c r="M224"/>
+      <c r="N224"/>
+      <c r="O224"/>
+      <c r="P224"/>
+      <c r="Q224"/>
+      <c r="R224"/>
+      <c r="S224"/>
+      <c r="T224"/>
+      <c r="U224"/>
+      <c r="V224"/>
+      <c r="W224"/>
+      <c r="X224"/>
+    </row>
+    <row r="225" spans="4:24" ht="15" customHeight="1">
+      <c r="K225"/>
+      <c r="L225"/>
+      <c r="M225"/>
+      <c r="N225"/>
+      <c r="O225"/>
+      <c r="P225"/>
+      <c r="Q225"/>
+      <c r="R225"/>
+      <c r="S225"/>
+      <c r="T225"/>
+      <c r="U225"/>
+      <c r="V225"/>
+      <c r="W225"/>
+      <c r="X225"/>
+    </row>
+    <row r="226" spans="4:24" ht="15" customHeight="1">
       <c r="D226"/>
       <c r="E226"/>
       <c r="F226"/>
       <c r="G226"/>
       <c r="H226"/>
+      <c r="K226"/>
+      <c r="L226"/>
+      <c r="M226"/>
+      <c r="N226"/>
+      <c r="O226"/>
+      <c r="P226"/>
+      <c r="Q226"/>
+      <c r="R226"/>
+      <c r="S226"/>
+      <c r="T226"/>
+      <c r="U226"/>
+      <c r="V226"/>
+      <c r="W226"/>
+      <c r="X226"/>
+    </row>
+    <row r="227" spans="4:24" ht="15" customHeight="1">
+      <c r="K227"/>
+      <c r="L227"/>
+      <c r="M227"/>
+      <c r="N227"/>
+      <c r="O227"/>
+      <c r="P227"/>
+      <c r="Q227"/>
+      <c r="R227"/>
+      <c r="S227"/>
+      <c r="T227"/>
+      <c r="U227"/>
+      <c r="V227"/>
+      <c r="W227"/>
+      <c r="X227"/>
+    </row>
+    <row r="228" spans="4:24" ht="15" customHeight="1">
+      <c r="K228"/>
+      <c r="L228"/>
+      <c r="M228"/>
+      <c r="N228"/>
+      <c r="O228"/>
+      <c r="P228"/>
+      <c r="Q228"/>
+      <c r="R228"/>
+      <c r="S228"/>
+      <c r="T228"/>
+      <c r="U228"/>
+      <c r="V228"/>
+      <c r="W228"/>
+      <c r="X228"/>
+    </row>
+    <row r="229" spans="4:24" ht="15" customHeight="1">
+      <c r="K229"/>
+      <c r="L229"/>
+      <c r="M229"/>
+      <c r="N229"/>
+      <c r="O229"/>
+      <c r="P229"/>
+      <c r="Q229"/>
+      <c r="R229"/>
+      <c r="S229"/>
+      <c r="T229"/>
+      <c r="U229"/>
+      <c r="V229"/>
+      <c r="W229"/>
+      <c r="X229"/>
+    </row>
+    <row r="230" spans="4:24" ht="15" customHeight="1">
+      <c r="K230"/>
+      <c r="L230"/>
+      <c r="M230"/>
+      <c r="N230"/>
+      <c r="O230"/>
+      <c r="P230"/>
+      <c r="Q230"/>
+      <c r="R230"/>
+      <c r="S230"/>
+      <c r="T230"/>
+      <c r="U230"/>
+      <c r="V230"/>
+      <c r="W230"/>
+      <c r="X230"/>
+    </row>
+    <row r="231" spans="4:24" ht="15" customHeight="1">
+      <c r="K231"/>
+      <c r="L231"/>
+      <c r="M231"/>
+      <c r="N231"/>
+      <c r="O231"/>
+      <c r="P231"/>
+      <c r="Q231"/>
+      <c r="R231"/>
+      <c r="S231"/>
+      <c r="T231"/>
+      <c r="U231"/>
+      <c r="V231"/>
+      <c r="W231"/>
+      <c r="X231"/>
+    </row>
+    <row r="232" spans="4:24" ht="15" customHeight="1">
+      <c r="K232"/>
+      <c r="L232"/>
+      <c r="M232"/>
+      <c r="N232"/>
+      <c r="O232"/>
+      <c r="P232"/>
+      <c r="Q232"/>
+      <c r="R232"/>
+      <c r="S232"/>
+      <c r="T232"/>
+      <c r="U232"/>
+      <c r="V232"/>
+      <c r="W232"/>
+      <c r="X232"/>
+    </row>
+    <row r="233" spans="4:24" ht="15" customHeight="1">
+      <c r="K233"/>
+      <c r="L233"/>
+      <c r="M233"/>
+      <c r="N233"/>
+      <c r="O233"/>
+      <c r="P233"/>
+      <c r="Q233"/>
+      <c r="R233"/>
+      <c r="S233"/>
+      <c r="T233"/>
+      <c r="U233"/>
+      <c r="V233"/>
+      <c r="W233"/>
+      <c r="X233"/>
+    </row>
+    <row r="234" spans="4:24" ht="15" customHeight="1">
+      <c r="K234"/>
+      <c r="L234"/>
+      <c r="M234"/>
+      <c r="N234"/>
+      <c r="O234"/>
+      <c r="P234"/>
+      <c r="Q234"/>
+      <c r="R234"/>
+      <c r="S234"/>
+      <c r="T234"/>
+      <c r="U234"/>
+      <c r="V234"/>
+      <c r="W234"/>
+      <c r="X234"/>
+    </row>
+    <row r="235" spans="4:24" ht="15" customHeight="1">
+      <c r="K235"/>
+      <c r="L235"/>
+      <c r="M235"/>
+      <c r="N235"/>
+      <c r="O235"/>
+      <c r="P235"/>
+      <c r="Q235"/>
+      <c r="R235"/>
+      <c r="S235"/>
+      <c r="T235"/>
+      <c r="U235"/>
+      <c r="V235"/>
+      <c r="W235"/>
+      <c r="X235"/>
+    </row>
+    <row r="236" spans="4:24" ht="15" customHeight="1">
+      <c r="K236"/>
+      <c r="L236"/>
+      <c r="M236"/>
+      <c r="N236"/>
+      <c r="O236"/>
+      <c r="P236"/>
+      <c r="Q236"/>
+      <c r="R236"/>
+      <c r="S236"/>
+      <c r="T236"/>
+      <c r="U236"/>
+      <c r="V236"/>
+      <c r="W236"/>
+      <c r="X236"/>
+    </row>
+    <row r="237" spans="4:24" ht="15" customHeight="1">
+      <c r="K237"/>
+      <c r="L237"/>
+      <c r="M237"/>
+      <c r="N237"/>
+      <c r="O237"/>
+      <c r="P237"/>
+      <c r="Q237"/>
+      <c r="R237"/>
+      <c r="S237"/>
+      <c r="T237"/>
+      <c r="U237"/>
+      <c r="V237"/>
+      <c r="W237"/>
+      <c r="X237"/>
+    </row>
+    <row r="238" spans="4:24" ht="15" customHeight="1">
+      <c r="K238"/>
+      <c r="L238"/>
+      <c r="M238"/>
+      <c r="N238"/>
+      <c r="O238"/>
+      <c r="P238"/>
+      <c r="Q238"/>
+      <c r="R238"/>
+      <c r="S238"/>
+      <c r="T238"/>
+      <c r="U238"/>
+      <c r="V238"/>
+      <c r="W238"/>
+      <c r="X238"/>
+    </row>
+    <row r="239" spans="4:24" ht="15" customHeight="1">
+      <c r="K239"/>
+      <c r="L239"/>
+      <c r="M239"/>
+      <c r="N239"/>
+      <c r="O239"/>
+      <c r="P239"/>
+      <c r="Q239"/>
+      <c r="R239"/>
+      <c r="S239"/>
+      <c r="T239"/>
+      <c r="U239"/>
+      <c r="V239"/>
+      <c r="W239"/>
+      <c r="X239"/>
+    </row>
+    <row r="240" spans="4:24" ht="15" customHeight="1">
+      <c r="K240"/>
+      <c r="L240"/>
+      <c r="M240"/>
+      <c r="N240"/>
+      <c r="O240"/>
+      <c r="P240"/>
+      <c r="Q240"/>
+      <c r="R240"/>
+      <c r="S240"/>
+      <c r="T240"/>
+      <c r="U240"/>
+      <c r="V240"/>
+      <c r="W240"/>
+      <c r="X240"/>
+    </row>
+    <row r="241" spans="11:24" ht="15" customHeight="1">
+      <c r="K241"/>
+      <c r="L241"/>
+      <c r="M241"/>
+      <c r="N241"/>
+      <c r="O241"/>
+      <c r="P241"/>
+      <c r="Q241"/>
+      <c r="R241"/>
+      <c r="S241"/>
+      <c r="T241"/>
+      <c r="U241"/>
+      <c r="V241"/>
+      <c r="W241"/>
+      <c r="X241"/>
+    </row>
+    <row r="242" spans="11:24" ht="15" customHeight="1">
+      <c r="K242"/>
+      <c r="L242"/>
+      <c r="M242"/>
+      <c r="N242"/>
+      <c r="O242"/>
+      <c r="P242"/>
+      <c r="Q242"/>
+      <c r="R242"/>
+      <c r="S242"/>
+      <c r="T242"/>
+      <c r="U242"/>
+      <c r="V242"/>
+      <c r="W242"/>
+      <c r="X242"/>
+    </row>
+    <row r="243" spans="11:24" ht="15" customHeight="1">
+      <c r="K243"/>
+      <c r="L243"/>
+      <c r="M243"/>
+      <c r="N243"/>
+      <c r="O243"/>
+      <c r="P243"/>
+      <c r="Q243"/>
+      <c r="R243"/>
+      <c r="S243"/>
+      <c r="T243"/>
+      <c r="U243"/>
+      <c r="V243"/>
+      <c r="W243"/>
+      <c r="X243"/>
+    </row>
+    <row r="244" spans="11:24" ht="15" customHeight="1">
+      <c r="K244"/>
+      <c r="L244"/>
+      <c r="M244"/>
+      <c r="N244"/>
+      <c r="O244"/>
+      <c r="P244"/>
+      <c r="Q244"/>
+      <c r="R244"/>
+      <c r="S244"/>
+      <c r="T244"/>
+      <c r="U244"/>
+      <c r="V244"/>
+      <c r="W244"/>
+      <c r="X244"/>
+    </row>
+    <row r="245" spans="11:24" ht="15" customHeight="1">
+      <c r="K245"/>
+      <c r="L245"/>
+      <c r="M245"/>
+      <c r="N245"/>
+      <c r="O245"/>
+      <c r="P245"/>
+      <c r="Q245"/>
+      <c r="R245"/>
+      <c r="S245"/>
+      <c r="T245"/>
+      <c r="U245"/>
+      <c r="V245"/>
+      <c r="W245"/>
+      <c r="X245"/>
+    </row>
+    <row r="246" spans="11:24" ht="15" customHeight="1">
+      <c r="K246"/>
+      <c r="L246"/>
+      <c r="M246"/>
+      <c r="N246"/>
+      <c r="O246"/>
+      <c r="P246"/>
+      <c r="Q246"/>
+      <c r="R246"/>
+      <c r="S246"/>
+      <c r="T246"/>
+      <c r="U246"/>
+      <c r="V246"/>
+      <c r="W246"/>
+      <c r="X246"/>
+    </row>
+    <row r="247" spans="11:24" ht="15" customHeight="1">
+      <c r="K247"/>
+      <c r="L247"/>
+      <c r="M247"/>
+      <c r="N247"/>
+      <c r="O247"/>
+      <c r="P247"/>
+      <c r="Q247"/>
+      <c r="R247"/>
+      <c r="S247"/>
+      <c r="T247"/>
+      <c r="U247"/>
+      <c r="V247"/>
+      <c r="W247"/>
+      <c r="X247"/>
+    </row>
+    <row r="248" spans="11:24" ht="15" customHeight="1">
+      <c r="K248"/>
+      <c r="L248"/>
+      <c r="M248"/>
+      <c r="N248"/>
+      <c r="O248"/>
+      <c r="P248"/>
+      <c r="Q248"/>
+      <c r="R248"/>
+      <c r="S248"/>
+      <c r="T248"/>
+      <c r="U248"/>
+      <c r="V248"/>
+      <c r="W248"/>
+      <c r="X248"/>
+    </row>
+    <row r="249" spans="11:24" ht="15" customHeight="1">
+      <c r="K249"/>
+      <c r="L249"/>
+      <c r="M249"/>
+      <c r="N249"/>
+      <c r="O249"/>
+      <c r="P249"/>
+      <c r="Q249"/>
+      <c r="R249"/>
+      <c r="S249"/>
+      <c r="T249"/>
+      <c r="U249"/>
+      <c r="V249"/>
+      <c r="W249"/>
+      <c r="X249"/>
+    </row>
+    <row r="250" spans="11:24" ht="15" customHeight="1">
+      <c r="K250"/>
+      <c r="L250"/>
+      <c r="M250"/>
+      <c r="N250"/>
+      <c r="O250"/>
+      <c r="P250"/>
+      <c r="Q250"/>
+      <c r="R250"/>
+      <c r="S250"/>
+      <c r="T250"/>
+      <c r="U250"/>
+      <c r="V250"/>
+      <c r="W250"/>
+      <c r="X250"/>
+    </row>
+    <row r="251" spans="11:24" ht="15" customHeight="1">
+      <c r="K251"/>
+      <c r="L251"/>
+      <c r="M251"/>
+      <c r="N251"/>
+      <c r="O251"/>
+      <c r="P251"/>
+      <c r="Q251"/>
+      <c r="R251"/>
+      <c r="S251"/>
+      <c r="T251"/>
+      <c r="U251"/>
+      <c r="V251"/>
+      <c r="W251"/>
+      <c r="X251"/>
+    </row>
+    <row r="252" spans="11:24" ht="15" customHeight="1">
+      <c r="K252"/>
+      <c r="L252"/>
+      <c r="M252"/>
+      <c r="N252"/>
+      <c r="O252"/>
+      <c r="P252"/>
+      <c r="Q252"/>
+      <c r="R252"/>
+      <c r="S252"/>
+      <c r="T252"/>
+      <c r="U252"/>
+      <c r="V252"/>
+      <c r="W252"/>
+      <c r="X252"/>
+    </row>
+    <row r="253" spans="11:24" ht="15" customHeight="1">
+      <c r="K253"/>
+      <c r="L253"/>
+      <c r="M253"/>
+      <c r="N253"/>
+      <c r="O253"/>
+      <c r="P253"/>
+      <c r="Q253"/>
+      <c r="R253"/>
+      <c r="S253"/>
+      <c r="T253"/>
+      <c r="U253"/>
+      <c r="V253"/>
+      <c r="W253"/>
+      <c r="X253"/>
+    </row>
+    <row r="254" spans="11:24" ht="15" customHeight="1">
+      <c r="K254"/>
+      <c r="L254"/>
+      <c r="M254"/>
+      <c r="N254"/>
+      <c r="O254"/>
+      <c r="P254"/>
+      <c r="Q254"/>
+      <c r="R254"/>
+      <c r="S254"/>
+      <c r="T254"/>
+      <c r="U254"/>
+      <c r="V254"/>
+      <c r="W254"/>
+      <c r="X254"/>
+    </row>
+    <row r="255" spans="11:24" ht="15" customHeight="1">
+      <c r="K255"/>
+      <c r="L255"/>
+      <c r="M255"/>
+      <c r="N255"/>
+      <c r="O255"/>
+      <c r="P255"/>
+      <c r="Q255"/>
+      <c r="R255"/>
+      <c r="S255"/>
+      <c r="T255"/>
+      <c r="U255"/>
+      <c r="V255"/>
+      <c r="W255"/>
+      <c r="X255"/>
+    </row>
+    <row r="256" spans="11:24" ht="15" customHeight="1">
+      <c r="K256"/>
+      <c r="L256"/>
+      <c r="M256"/>
+      <c r="N256"/>
+      <c r="O256"/>
+      <c r="P256"/>
+      <c r="Q256"/>
+      <c r="R256"/>
+      <c r="S256"/>
+      <c r="T256"/>
+      <c r="U256"/>
+      <c r="V256"/>
+      <c r="W256"/>
+      <c r="X256"/>
+    </row>
+    <row r="257" spans="11:24" ht="15" customHeight="1">
+      <c r="K257"/>
+      <c r="L257"/>
+      <c r="M257"/>
+      <c r="N257"/>
+      <c r="O257"/>
+      <c r="P257"/>
+      <c r="Q257"/>
+      <c r="R257"/>
+      <c r="S257"/>
+      <c r="T257"/>
+      <c r="U257"/>
+      <c r="V257"/>
+      <c r="W257"/>
+      <c r="X257"/>
+    </row>
+    <row r="258" spans="11:24" ht="15" customHeight="1">
+      <c r="K258"/>
+      <c r="L258"/>
+      <c r="M258"/>
+      <c r="N258"/>
+      <c r="O258"/>
+      <c r="P258"/>
+      <c r="Q258"/>
+      <c r="R258"/>
+      <c r="S258"/>
+      <c r="T258"/>
+      <c r="U258"/>
+      <c r="V258"/>
+      <c r="W258"/>
+      <c r="X258"/>
+    </row>
+    <row r="259" spans="11:24" ht="15" customHeight="1">
+      <c r="K259"/>
+      <c r="L259"/>
+      <c r="M259"/>
+      <c r="N259"/>
+      <c r="O259"/>
+      <c r="P259"/>
+      <c r="Q259"/>
+      <c r="R259"/>
+      <c r="S259"/>
+      <c r="T259"/>
+      <c r="U259"/>
+      <c r="V259"/>
+      <c r="W259"/>
+      <c r="X259"/>
+    </row>
+    <row r="260" spans="11:24" ht="15" customHeight="1">
+      <c r="K260"/>
+      <c r="L260"/>
+      <c r="M260"/>
+      <c r="N260"/>
+      <c r="O260"/>
+      <c r="P260"/>
+      <c r="Q260"/>
+      <c r="R260"/>
+      <c r="S260"/>
+      <c r="T260"/>
+      <c r="U260"/>
+      <c r="V260"/>
+      <c r="W260"/>
+      <c r="X260"/>
+    </row>
+    <row r="261" spans="11:24" ht="15" customHeight="1">
+      <c r="K261"/>
+      <c r="L261"/>
+      <c r="M261"/>
+      <c r="N261"/>
+      <c r="O261"/>
+      <c r="P261"/>
+      <c r="Q261"/>
+      <c r="R261"/>
+      <c r="S261"/>
+      <c r="T261"/>
+      <c r="U261"/>
+      <c r="V261"/>
+      <c r="W261"/>
+      <c r="X261"/>
+    </row>
+    <row r="262" spans="11:24" ht="15" customHeight="1">
+      <c r="K262"/>
+      <c r="L262"/>
+      <c r="M262"/>
+      <c r="N262"/>
+      <c r="O262"/>
+      <c r="P262"/>
+      <c r="Q262"/>
+      <c r="R262"/>
+      <c r="S262"/>
+      <c r="T262"/>
+      <c r="U262"/>
+      <c r="V262"/>
+      <c r="W262"/>
+      <c r="X262"/>
+    </row>
+    <row r="263" spans="11:24" ht="15" customHeight="1">
+      <c r="K263"/>
+      <c r="L263"/>
+      <c r="M263"/>
+      <c r="N263"/>
+      <c r="O263"/>
+      <c r="P263"/>
+      <c r="Q263"/>
+      <c r="R263"/>
+      <c r="S263"/>
+      <c r="T263"/>
+      <c r="U263"/>
+      <c r="V263"/>
+      <c r="W263"/>
+      <c r="X263"/>
+    </row>
+    <row r="264" spans="11:24" ht="15" customHeight="1">
+      <c r="K264"/>
+      <c r="L264"/>
+      <c r="M264"/>
+      <c r="N264"/>
+      <c r="O264"/>
+      <c r="P264"/>
+      <c r="Q264"/>
+      <c r="R264"/>
+      <c r="S264"/>
+      <c r="T264"/>
+      <c r="U264"/>
+      <c r="V264"/>
+      <c r="W264"/>
+      <c r="X264"/>
+    </row>
+    <row r="265" spans="11:24" ht="15" customHeight="1">
+      <c r="K265"/>
+      <c r="L265"/>
+      <c r="M265"/>
+      <c r="N265"/>
+      <c r="O265"/>
+      <c r="P265"/>
+      <c r="Q265"/>
+      <c r="R265"/>
+      <c r="S265"/>
+      <c r="T265"/>
+      <c r="U265"/>
+      <c r="V265"/>
+      <c r="W265"/>
+      <c r="X265"/>
+    </row>
+    <row r="266" spans="11:24" ht="15" customHeight="1">
+      <c r="K266"/>
+      <c r="L266"/>
+      <c r="M266"/>
+      <c r="N266"/>
+      <c r="O266"/>
+      <c r="P266"/>
+      <c r="Q266"/>
+      <c r="R266"/>
+      <c r="S266"/>
+      <c r="T266"/>
+      <c r="U266"/>
+      <c r="V266"/>
+      <c r="W266"/>
+      <c r="X266"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
